--- a/biology/Botanique/Liste_de_mets_à_base_de_pomme_de_terre/Liste_de_mets_à_base_de_pomme_de_terre.xlsx
+++ b/biology/Botanique/Liste_de_mets_à_base_de_pomme_de_terre/Liste_de_mets_à_base_de_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste de mets à base de pomme de terre présente les nombreux mets à base de pommes de terre qui sont préparés dans les diverses cultures.
 La pomme de terre, qui est l'un des principaux aliments de base de l'humanité, est largement consommée dans tous les pays du monde, et s'apprête en outre de façons très variées.
-La frite est la préparation de pomme de terre la plus consommée au monde[1].
+La frite est la préparation de pomme de terre la plus consommée au monde.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liste alphabétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Poulet d'horloger, plat franc-comtois à base de tranches de pommes de terre en chemise et de cancoillotte (France)
 Pringles, marque de chips de la société Procter &amp; Gamble (États-Unis)
@@ -556,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,28 +590,373 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pommes de terre seules
-Frites, chips, galette de pommes de terre, pomme de terre en robe des champs, purée, croquettes (beignets de purée), crique
-Pommes de terre et farine de céréales
-Chapalele, chochoca, culurgiones, farinade, fricassé, gnocchis, halušky, Kriegskartoffelbrot, Lefse, maluns, pain de pommes de terre, pâté aux pommes de terre, pommes dauphine, scone de pommes de terre
-Pommes de terre et fromage
-Aligot, bryndzové halušky, frico morbido, gatò di patate, llapingacho, patatnik, poutine, quepapas, tartiflette, truffade
-Pommes de terre et légumes
-Aloo gobi, aloo matar, stamppot, stoemp, tourte berrichonne, tourte Woolton, tumbet
-Pommes de terre et œufs
-Bauernfrühstück, crique ardéchoise, omelette de pomme de terre, tortilla de patatas
-Pommes de terre et poisson
-Estofinade, fish and chips, Janssons frestelse, brandade (de morue, de saumon…)
-Pommes de terre et viande
-Cepelinai, cottage pie, Dibbelabbes, hachis parmentier, empadão, korokke, pastel de papa, Potthucke, raspeball, salchipapas, saucisse aux pommes de terre
-Charcuterie
-Morcilla patatera, potatiskorv, salame di patate, salchipapas, saucisse aux pommes de terre
-Desserts
-Coca de patata, mohnnudel, Quarkkeulchen, spettekaka
-Soupes et potages
-Ajiaco, carapulca, chupe, Kartoffelsuppe, vichyssoise
-Sandwichs
-Crisp sandwich, mitraillette (cuisine)</t>
+          <t>Pommes de terre seules</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frites, chips, galette de pommes de terre, pomme de terre en robe des champs, purée, croquettes (beignets de purée), crique</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pommes de terre et farine de céréales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chapalele, chochoca, culurgiones, farinade, fricassé, gnocchis, halušky, Kriegskartoffelbrot, Lefse, maluns, pain de pommes de terre, pâté aux pommes de terre, pommes dauphine, scone de pommes de terre</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pommes de terre et fromage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aligot, bryndzové halušky, frico morbido, gatò di patate, llapingacho, patatnik, poutine, quepapas, tartiflette, truffade</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pommes de terre et légumes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aloo gobi, aloo matar, stamppot, stoemp, tourte berrichonne, tourte Woolton, tumbet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pommes de terre et œufs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bauernfrühstück, crique ardéchoise, omelette de pomme de terre, tortilla de patatas</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pommes de terre et poisson</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Estofinade, fish and chips, Janssons frestelse, brandade (de morue, de saumon…)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pommes de terre et viande</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cepelinai, cottage pie, Dibbelabbes, hachis parmentier, empadão, korokke, pastel de papa, Potthucke, raspeball, salchipapas, saucisse aux pommes de terre</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Charcuterie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Morcilla patatera, potatiskorv, salame di patate, salchipapas, saucisse aux pommes de terre</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Desserts</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Coca de patata, mohnnudel, Quarkkeulchen, spettekaka</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Soupes et potages</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ajiaco, carapulca, chupe, Kartoffelsuppe, vichyssoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_mets_à_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_mets_%C3%A0_base_de_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste par principaux ingrédients</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sandwichs</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Crisp sandwich, mitraillette (cuisine)</t>
         </is>
       </c>
     </row>
